--- a/Photonics_Labs/8_sem/Lab21/Lab21_data.xlsx
+++ b/Photonics_Labs/8_sem/Lab21/Lab21_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b566d95faa460c8a/GitHub/Labs/Photonics_Labs/8_sem/Lab21/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nekha\OneDrive\GitHub\Labs\Photonics_Labs\8_sem\Lab21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="11_AD4DF75460589B3ACB7284C327196F105BDEDDA5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{79907EB8-570A-45BC-A1A9-26253F0682D0}"/>
+  <xr:revisionPtr revIDLastSave="256" documentId="11_AD4DF75460589B3ACB7284C327196F105BDEDDA5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC1A8EF3-8CFE-4C73-9D58-CF78C85A7FDB}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="2602" windowWidth="16028" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4658" yWindow="1567" windowWidth="18225" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -589,29 +589,32 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$E$35:$E$41</c:f>
+              <c:f>Лист1!$E$35:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.1100500000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>3.6720500000000005</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.5591120000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>5.4120499999999989</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.7617999999999991</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4.2632000000000003</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>3.8088000000000006</c:v>
                 </c:pt>
               </c:numCache>
@@ -619,29 +622,32 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$35:$F$41</c:f>
+              <c:f>Лист1!$F$35:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.44999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.42499999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.19999999999999998</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.125</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>3.7499999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>5.128205128205128E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2293,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2730,156 +2736,177 @@
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35" s="3">
-        <v>7.45</v>
-      </c>
-      <c r="B35" s="3">
-        <v>100</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.4</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.18</v>
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <f>A35^2/50</f>
-        <v>1.1100500000000002</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
-        <f>D35/C35</f>
-        <v>0.44999999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
-        <v>13.55</v>
+        <v>7.45</v>
       </c>
       <c r="B36" s="3">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C36" s="3">
         <v>0.4</v>
       </c>
       <c r="D36" s="3">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" ref="E36:E41" si="5">A36^2/50</f>
-        <v>3.6720500000000005</v>
+        <f>A36^2/50</f>
+        <v>1.1100500000000002</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ref="F36:F41" si="6">D36/C36</f>
-        <v>0.42499999999999999</v>
+        <f>D36/C36</f>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37" s="7">
-        <v>13.34</v>
+      <c r="A37" s="3">
+        <v>13.55</v>
       </c>
       <c r="B37" s="3">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C37" s="3">
         <v>0.4</v>
       </c>
       <c r="D37" s="3">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="5"/>
-        <v>3.5591120000000003</v>
+        <f t="shared" ref="E37:E42" si="5">A37^2/50</f>
+        <v>3.6720500000000005</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
+        <f t="shared" ref="F37:F42" si="6">D37/C37</f>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
-        <v>16.45</v>
+        <v>13.34</v>
       </c>
       <c r="B38" s="3">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C38" s="3">
         <v>0.4</v>
       </c>
       <c r="D38" s="3">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="5"/>
-        <v>5.4120499999999989</v>
+        <v>3.5591120000000003</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="6"/>
-        <v>0.19999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
-        <v>19.7</v>
+        <v>16.45</v>
       </c>
       <c r="B39" s="3">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C39" s="3">
         <v>0.4</v>
       </c>
       <c r="D39" s="3">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="5"/>
-        <v>7.7617999999999991</v>
+        <v>5.4120499999999989</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="6"/>
-        <v>0.125</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
-        <v>14.6</v>
+        <v>19.7</v>
       </c>
       <c r="B40" s="3">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C40" s="3">
         <v>0.4</v>
       </c>
       <c r="D40" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="5"/>
+        <v>7.7617999999999991</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="6"/>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41" s="7">
+        <v>14.6</v>
+      </c>
+      <c r="B41" s="3">
+        <v>125</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="D41" s="3">
         <f>1.5*0.01</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <f t="shared" si="5"/>
         <v>4.2632000000000003</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F41" s="3">
         <f t="shared" si="6"/>
         <v>3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A41" s="8">
+    <row r="42" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="8">
         <v>13.8</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B42" s="4">
         <v>130</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C42" s="4">
         <v>0.39</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D42" s="4">
         <v>0.02</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E42" s="4">
         <f t="shared" si="5"/>
         <v>3.8088000000000006</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F42" s="4">
         <f t="shared" si="6"/>
         <v>5.128205128205128E-2</v>
       </c>
